--- a/resource/data/Book1.xlsx
+++ b/resource/data/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistempkl\application\controllers\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sistempkl\resource\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B9D274-AD72-4C2B-AC9A-1820E0C09BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EBEC0C-D0A0-4ADD-B7D4-088232ADF53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3390" windowWidth="15375" windowHeight="8325" xr2:uid="{AA9DA9E0-0AD5-461C-BBEA-E890C6430391}"/>
+    <workbookView xWindow="4125" yWindow="3195" windowWidth="15375" windowHeight="8325" xr2:uid="{AA9DA9E0-0AD5-461C-BBEA-E890C6430391}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>alamat</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>2003-02-20</t>
+  </si>
+  <si>
+    <t>komang</t>
+  </si>
+  <si>
+    <t>nyoman</t>
+  </si>
+  <si>
+    <t>ketut</t>
+  </si>
+  <si>
+    <t>putu</t>
   </si>
 </sst>
 </file>
@@ -458,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27480C8F-8F0B-41BD-96E0-A558C33C41DC}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +583,134 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2115354003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2115354004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>2020</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2115354005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>2020</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2115354006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
